--- a/data/report/statistical_report.xlsx
+++ b/data/report/statistical_report.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tong_Quan" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Top_Airports_by_Routes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Top_Airlines_by_Routes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Top_Airlines_by_Coverage" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Top_Airport_Hubs_Centrality" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -19,7 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -464,17 +467,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7209</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>total_unique_airlines</t>
+          <t>total_airlines_db</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>6460</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +577,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>DXB</t>
         </is>
       </c>
     </row>
@@ -679,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +691,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -699,108 +703,163 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>route_count</t>
+          <t>country_count</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>airline_name</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>EK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>42</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Emirates</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>THY - Turkish Airlines</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>SQ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300</v>
+        <v>32</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Singapore Airlines</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WN</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>British Airways</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EK</t>
+          <t>QR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Qatar Airways</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LH</t>
+          <t>AF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>300</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Air France</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>CX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>300</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cathay Pacific</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300</v>
+        <v>25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ryanair Ltd.</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>300</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>American Airlines</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QR</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>United Airlines</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -824,7 +883,7 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -850,8 +909,8 @@
           <t>CDG</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.001165375659100699</v>
+      <c r="B2" s="2" t="n">
+        <v>0.000665</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -862,15 +921,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DXB</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0007761214394625277</v>
+          <t>IST</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.000559</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Istanbul Airport</t>
         </is>
       </c>
     </row>
@@ -880,8 +939,8 @@
           <t>PEK</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.00074580269182739</v>
+      <c r="B4" s="2" t="n">
+        <v>0.000467</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -895,8 +954,8 @@
           <t>SVO</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.0006218712014940464</v>
+      <c r="B5" s="2" t="n">
+        <v>0.000453</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -907,90 +966,90 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FRA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0005011737109084505</v>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.000451</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Frankfurt International Airport</t>
+          <t>Los Angeles International</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HND</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0004857737121096505</v>
+          <t>LHR</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.000431</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Haneda Airport</t>
+          <t>Heathrow</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DOH</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0004025559686006345</v>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.000424</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Doha International</t>
+          <t>John F Kennedy International</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LHR</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0003377412236561846</v>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.000404</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Heathrow</t>
+          <t>Haneda Airport</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SIN</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.000325324974624652</v>
+          <t>HKG</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.000381</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Singapore Changi</t>
+          <t>Hong Kong International</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YYZ</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0002910407272988233</v>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.000372</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lester B. Pearson International</t>
+          <t>Singapore Changi</t>
         </is>
       </c>
     </row>
